--- a/documentation/SprintBackLogs/Sprint Backlog & BurndownSprint1.xlsx
+++ b/documentation/SprintBackLogs/Sprint Backlog & BurndownSprint1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{12056818-6BAE-417C-AB55-3991BCD2DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,35 +101,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" count="8" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -141,7 +152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor theme="6"/>
       </patternFill>
     </fill>
@@ -171,58 +182,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDEEAF6"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF9CC2E5"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -240,8 +301,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -262,7 +323,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -306,7 +367,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cmpd="sng">
+            <a:ln cmpd="sng" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -314,6 +375,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
+            <c:size val="9"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -746,21 +808,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="121" workbookViewId="0" tabSelected="1" zoomScaleNormal="120">
+      <selection pane="topLeft" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.42578125" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="12" width="2" customWidth="1"/>
-    <col min="13" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="5.05" customWidth="1"/>
+    <col min="15" max="16" width="2.79" customWidth="1"/>
+    <col min="17" max="17" width="3.38" customWidth="1"/>
     <col min="18" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -989,13 +1052,13 @@
         <v>4</v>
       </c>
       <c r="O5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1151,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="P8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1260,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1453,7 +1516,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="15.75" customHeight="1" r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1472,7 +1535,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="15.75" customHeight="1" r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1491,7 +1554,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="15.75" customHeight="1" r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1510,7 +1573,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="15.75" customHeight="1" r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1529,7 +1592,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="15.75" customHeight="1" r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1548,7 +1611,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="15.75" customHeight="1" r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1567,1044 +1630,1044 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="15.75" customHeight="1" r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:O27" si="0">SUM(C3:C26)</f>
+        <f>SUM(C3:C26)</f>
         <v>30</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(D3:D26)</f>
         <v>29.5</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(E3:E26)</f>
         <v>24</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(F3:F26)</f>
         <v>24</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(G3:G26)</f>
         <v>24</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(H3:H26)</f>
         <v>24</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(I3:I26)</f>
         <v>20</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(J3:J26)</f>
         <v>20</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(K3:K26)</f>
         <v>18</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(L3:L26)</f>
         <v>18</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(M3:M26)</f>
         <v>18</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(N3:N26)</f>
         <v>18</v>
       </c>
       <c r="O27" s="5">
         <f>SUM(O3:O26)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P27" s="10">
         <f>SUM(P3:P26)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="10">
         <f>SUM(Q3:Q26)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="28" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="29" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="30" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="31" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="32" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="33" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="34" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="35" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="36" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="37" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="38" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="39" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="40" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="41" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="42" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="43" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="44" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="45" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="46" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="47" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="48" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="49" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="50" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="51" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="52" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="53" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="54" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="55" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="56" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="57" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="58" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="59" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="60" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="61" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="62" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="63" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="64" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="65" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="66" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="67" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="68" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="69" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="70" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="71" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="72" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="73" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="74" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="75" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="76" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="77" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="78" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="79" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="80" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="81" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="82" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="83" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="84" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="85" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="86" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="87" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="88" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="89" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="90" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="91" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="92" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="93" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="94" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="95" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="96" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="97" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="98" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="99" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="100" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="101" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="102" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="103" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="104" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="105" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="106" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="107" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="108" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="109" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="110" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="111" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="112" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="113" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="114" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="115" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="116" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="117" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="118" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="119" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="120" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="121" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="122" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="123" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="124" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="125" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="126" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="127" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="128" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="129" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="130" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="131" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="132" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="133" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="134" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="135" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="136" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="137" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="138" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="139" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="140" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="141" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="142" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="143" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="144" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="145" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="146" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="147" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="148" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="149" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="150" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="151" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="152" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="153" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="154" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="155" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="156" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="157" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="158" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="159" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="160" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="161" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="162" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="163" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="164" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="165" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="166" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="167" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="168" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="169" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="170" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="171" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="172" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="173" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="174" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="175" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="176" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="177" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="178" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="179" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="180" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="181" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="182" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="183" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="184" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="185" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="186" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="187" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="188" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="189" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="190" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="191" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="192" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="193" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="194" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="195" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="196" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="197" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="198" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="199" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="200" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="201" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="202" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="203" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="204" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="205" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="206" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="207" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="208" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="209" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="210" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="211" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="212" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="213" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="214" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="215" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="216" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="217" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="218" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="219" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="220" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="221" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="222" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="223" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="224" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="225" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="226" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="227" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="228" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="229" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="230" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="231" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="232" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="233" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="234" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="235" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="236" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="237" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="238" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="239" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="240" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="241" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="242" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="243" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="244" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="245" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="246" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="247" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="248" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="249" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="250" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="251" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="252" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="253" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="254" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="255" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="256" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="257" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="258" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="259" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="260" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="261" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="262" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="263" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="264" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="265" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="266" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="267" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="268" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="269" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="270" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="271" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="272" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="273" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="274" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="275" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="276" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="277" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="278" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="279" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="280" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="281" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="282" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="283" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="284" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="285" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="286" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="287" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="288" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="289" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="290" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="291" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="292" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="293" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="294" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="295" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="296" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="297" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="298" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="299" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="300" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="301" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="302" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="303" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="304" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="305" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="306" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="307" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="308" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="309" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="310" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="311" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="312" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="313" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="314" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="315" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="316" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="317" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="318" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="319" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="320" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="321" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="322" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="323" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="324" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="325" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="326" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="327" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="328" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="329" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="330" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="331" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="332" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="333" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="334" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="335" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="336" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="337" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="338" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="339" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="340" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="341" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="342" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="343" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="344" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="345" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="346" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="347" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="348" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="349" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="350" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="351" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="352" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="353" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="354" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="355" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="356" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="357" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="358" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="359" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="360" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="361" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="362" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="363" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="364" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="365" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="366" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="367" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="368" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="369" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="370" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="371" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="372" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="373" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="374" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="375" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="376" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="377" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="378" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="379" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="380" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="381" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="382" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="383" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="384" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="385" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="386" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="387" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="388" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="389" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="390" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="391" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="392" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="393" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="394" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="395" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="396" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="397" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="398" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="399" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="400" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="401" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="402" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="403" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="404" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="405" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="406" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="407" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="408" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="409" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="410" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="411" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="412" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="413" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="414" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="415" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="416" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="417" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="418" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="419" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="420" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="421" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="422" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="423" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="424" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="425" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="426" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="427" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="428" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="429" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="430" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="431" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="432" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="433" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="434" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="435" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="436" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="437" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="438" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="439" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="440" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="441" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="442" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="443" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="444" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="445" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="446" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="447" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="448" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="449" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="450" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="451" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="452" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="453" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="454" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="455" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="456" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="457" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="458" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="459" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="460" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="461" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="462" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="463" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="464" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="465" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="466" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="467" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="468" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="469" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="470" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="471" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="472" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="473" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="474" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="475" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="476" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="477" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="478" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="479" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="480" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="481" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="482" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="483" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="484" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="485" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="486" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="487" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="488" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="489" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="490" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="491" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="492" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="493" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="494" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="495" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="496" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="497" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="498" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="499" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="500" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="501" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="502" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="503" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="504" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="505" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="506" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="507" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="508" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="509" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="510" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="511" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="512" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="513" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="514" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="515" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="516" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="517" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="518" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="519" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="520" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="521" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="522" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="523" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="524" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="525" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="526" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="527" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="528" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="529" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="530" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="531" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="532" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="533" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="534" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="535" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="536" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="537" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="538" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="539" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="540" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="541" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="542" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="543" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="544" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="545" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="546" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="547" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="548" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="549" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="550" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="551" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="552" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="553" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="554" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="555" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="556" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="557" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="558" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="559" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="560" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="561" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="562" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="563" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="564" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="565" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="566" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="567" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="568" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="569" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="570" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="571" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="572" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="573" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="574" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="575" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="576" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="577" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="578" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="579" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="580" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="581" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="582" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="583" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="584" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="585" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="586" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="587" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="588" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="589" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="590" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="591" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="592" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="593" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="594" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="595" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="596" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="597" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="598" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="599" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="600" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="601" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="602" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="603" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="604" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="605" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="606" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="607" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="608" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="609" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="610" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="611" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="612" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="613" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="614" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="615" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="616" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="617" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="618" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="619" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="620" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="621" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="622" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="623" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="624" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="625" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="626" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="627" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="628" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="629" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="630" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="631" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="632" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="633" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="634" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="635" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="636" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="637" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="638" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="639" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="640" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="641" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="642" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="643" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="644" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="645" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="646" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="647" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="648" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="649" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="650" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="651" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="652" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="653" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="654" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="655" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="656" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="657" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="658" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="659" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="660" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="661" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="662" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="663" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="664" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="665" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="666" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="667" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="668" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="669" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="670" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="671" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="672" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="673" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="674" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="675" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="676" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="677" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="678" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="679" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="680" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="681" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="682" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="683" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="684" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="685" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="686" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="687" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="688" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="689" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="690" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="691" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="692" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="693" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="694" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="695" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="696" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="697" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="698" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="699" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="700" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="701" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="702" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="703" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="704" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="705" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="706" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="707" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="708" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="709" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="710" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="711" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="712" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="713" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="714" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="715" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="716" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="717" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="718" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="719" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="720" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="721" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="722" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="723" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="724" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="725" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="726" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="727" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="728" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="729" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="730" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="731" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="732" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="733" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="734" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="735" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="736" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="737" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="738" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="739" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="740" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="741" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="742" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="743" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="744" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="745" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="746" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="747" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="748" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="749" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="750" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="751" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="752" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="753" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="754" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="755" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="756" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="757" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="758" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="759" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="760" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="761" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="762" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="763" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="764" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="765" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="766" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="767" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="768" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="769" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="770" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="771" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="772" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="773" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="774" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="775" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="776" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="777" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="778" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="779" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="780" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="781" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="782" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="783" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="784" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="785" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="786" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="787" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="788" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="789" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="790" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="791" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="792" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="793" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="794" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="795" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="796" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="797" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="798" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="799" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="800" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="801" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="802" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="803" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="804" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="805" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="806" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="807" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="808" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="809" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="810" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="811" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="812" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="813" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="814" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="815" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="816" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="817" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="818" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="819" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="820" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="821" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="822" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="823" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="824" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="825" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="826" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="827" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="828" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="829" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="830" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="831" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="832" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="833" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="834" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="835" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="836" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="837" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="838" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="839" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="840" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="841" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="842" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="843" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="844" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="845" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="846" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="847" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="848" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="849" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="850" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="851" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="852" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="853" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="854" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="855" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="856" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="857" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="858" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="859" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="860" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="861" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="862" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="863" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="864" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="865" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="866" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="867" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="868" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="869" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="870" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="871" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="872" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="873" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="874" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="875" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="876" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="877" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="878" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="879" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="880" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="881" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="882" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="883" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="884" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="885" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="886" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="887" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="888" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="889" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="890" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="891" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="892" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="893" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="894" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="895" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="896" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="897" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="898" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="899" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="900" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="901" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="902" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="903" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="904" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="905" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="906" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="907" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="908" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="909" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="910" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="911" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="912" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="913" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="914" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="915" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="916" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="917" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="918" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="919" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="920" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="921" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="922" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="923" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="924" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="925" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="926" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="927" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="928" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="929" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="930" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="931" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="932" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="933" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="934" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="935" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="936" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="937" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="938" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="939" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="940" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="941" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="942" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="943" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="944" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="945" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="946" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="947" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="948" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="949" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="950" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="951" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="952" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="953" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="954" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="955" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="956" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="957" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="958" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="959" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="960" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="961" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="962" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="963" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="964" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="965" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="966" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="967" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="968" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="969" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="970" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="971" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="972" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="973" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="974" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="975" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="976" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="977" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="978" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="979" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="980" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="981" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="982" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="983" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="984" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="985" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="986" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="987" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="988" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="989" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="990" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="991" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="992" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="993" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="994" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="995" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="996" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="997" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="998" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="999" x14ac:dyDescent="0.25"/>
+    <row ht="15.75" customHeight="1" r="1000" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
